--- a/DB_test_data/campaign_info.xlsx
+++ b/DB_test_data/campaign_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1830" windowWidth="25755" windowHeight="11595"/>
+    <workbookView xWindow="360" yWindow="2430" windowWidth="25755" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너랑나광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은날광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍신광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부우우광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있잖아광고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +111,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ AM/PM\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="mm&quot;/&quot;dd&quot;/&quot;yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +133,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,13 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -422,23 +455,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="28.625" customWidth="1"/>
+    <col min="3" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,22 +485,25 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -480,24 +516,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>42906</v>
-      </c>
       <c r="G2" s="3">
+        <v>42906</v>
+      </c>
+      <c r="H2" s="3">
         <v>43271</v>
       </c>
-      <c r="H2" s="3">
-        <v>42906</v>
-      </c>
       <c r="I2" s="3">
         <v>42906</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <v>42906</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -510,24 +549,27 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
-        <v>42906</v>
-      </c>
       <c r="G3" s="3">
+        <v>42906</v>
+      </c>
+      <c r="H3" s="3">
         <v>43271</v>
       </c>
-      <c r="H3" s="3">
-        <v>42906</v>
-      </c>
       <c r="I3" s="3">
+        <v>42906</v>
+      </c>
+      <c r="J3" s="3">
         <v>42906.505972222199</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -540,24 +582,27 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>42906</v>
-      </c>
       <c r="G4" s="3">
+        <v>42906</v>
+      </c>
+      <c r="H4" s="3">
         <v>43271</v>
       </c>
-      <c r="H4" s="3">
-        <v>42906</v>
-      </c>
       <c r="I4" s="3">
+        <v>42906</v>
+      </c>
+      <c r="J4" s="3">
         <v>42906.506030092598</v>
       </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -570,24 +615,27 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <v>42906</v>
-      </c>
       <c r="G5" s="3">
+        <v>42906</v>
+      </c>
+      <c r="H5" s="3">
         <v>43120</v>
       </c>
-      <c r="H5" s="3">
-        <v>42906</v>
-      </c>
       <c r="I5" s="3">
+        <v>42906</v>
+      </c>
+      <c r="J5" s="3">
         <v>42906.506030092598</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -600,81 +648,84 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>42906</v>
-      </c>
       <c r="G6" s="3">
+        <v>42906</v>
+      </c>
+      <c r="H6" s="3">
         <v>43120</v>
       </c>
-      <c r="H6" s="3">
-        <v>42906</v>
-      </c>
       <c r="I6" s="3">
+        <v>42906</v>
+      </c>
+      <c r="J6" s="3">
         <v>42906.506030092598</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
